--- a/Symphony/2021/April/Others/Price List -06.04.2021.xlsx
+++ b/Symphony/2021/April/Others/Price List -06.04.2021.xlsx
@@ -367,7 +367,7 @@
     <t>13MP+5MP+2MP+13MP</t>
   </si>
   <si>
-    <t>Last Updated on: 11/04/2021</t>
+    <t>Last Updated on: 19/04/2021</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
         <xdr:cNvPr id="17" name="Group 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -730,7 +730,7 @@
           <xdr:cNvPr id="18" name="Freeform 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -936,7 +936,7 @@
           <xdr:cNvPr id="19" name="Freeform 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2037,7 +2037,7 @@
           <xdr:cNvPr id="20" name="Freeform 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2484,7 +2484,7 @@
           <xdr:cNvPr id="21" name="Freeform 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2544,7 +2544,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2561,7 +2561,7 @@
           <xdr:cNvPr id="22" name="Freeform 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2624,7 +2624,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2641,7 +2641,7 @@
           <xdr:cNvPr id="23" name="Freeform 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2701,7 +2701,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3011,7 +3011,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
